--- a/raw data/API_documents/40_API_documentations/evaluate/evaluate_label_API.xlsx
+++ b/raw data/API_documents/40_API_documentations/evaluate/evaluate_label_API.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huthvincent/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huthvincent/Documents/research/malicious_library_hunting/data_policy_analyzer/raw data/API_documents/40_API_documentations/evaluate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91655FC5-1589-AE44-98FB-03FA674DDCD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D28F993-F1D3-4F4B-B792-7A511EB30AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{5314C192-A15B-2840-B831-BCD790C3E506}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{5314C192-A15B-2840-B831-BCD790C3E506}"/>
   </bookViews>
   <sheets>
     <sheet name="facebook" sheetId="1" r:id="rId1"/>
@@ -23298,8 +23298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489AFDC5-498E-864E-AEB9-DE76DAD493E5}">
   <dimension ref="A1:F295"/>
   <sheetViews>
-    <sheetView topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257:XFD295"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23312,7 +23312,7 @@
     <col min="6" max="6" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>800</v>
       </c>
@@ -40597,7 +40597,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>863</v>
       </c>
@@ -40617,7 +40617,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>867</v>
       </c>
@@ -51691,7 +51691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48297DDC-D8D3-2544-B81A-956B84D20D58}">
   <dimension ref="A1:F1680"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A825" workbookViewId="0">
+    <sheetView topLeftCell="A506" workbookViewId="0">
       <selection activeCell="J870" sqref="J870"/>
     </sheetView>
   </sheetViews>
